--- a/Project_Figures.xlsx
+++ b/Project_Figures.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45084d7f136e201d/Documents/COMP372/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45084d7f136e201d/Documents/372-project/ghg-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{49CF4CDE-090B-43BF-8E3C-85C4D8F67711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D39F478D-C288-401C-A49B-563FC2716275}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{49CF4CDE-090B-43BF-8E3C-85C4D8F67711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17B0A7EB-DA47-4E43-BDB7-78BB61C6924F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{97376A2B-792E-4B38-A661-81DC03B910A2}"/>
+    <workbookView minimized="1" xWindow="3705" yWindow="3390" windowWidth="15375" windowHeight="7875" firstSheet="2" activeTab="4" xr2:uid="{97376A2B-792E-4B38-A661-81DC03B910A2}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Students %" sheetId="1" r:id="rId1"/>
     <sheet name="2. Lobc" sheetId="2" r:id="rId2"/>
     <sheet name="3. Electricity renewables %" sheetId="3" r:id="rId3"/>
-    <sheet name="4. Total base scenario" sheetId="4" r:id="rId4"/>
-    <sheet name="5.Carbon offsetting" sheetId="5" r:id="rId5"/>
+    <sheet name="6. Modelling BS numbers" sheetId="6" r:id="rId4"/>
+    <sheet name="6.Adjustments" sheetId="7" r:id="rId5"/>
+    <sheet name="4. Total base scenario" sheetId="4" r:id="rId6"/>
+    <sheet name="5.Carbon offsetting" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="13">
   <si>
     <t>Emissions</t>
   </si>
@@ -1406,11 +1408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887FFB9D-DFDC-47F6-BD57-0C5C68F5CD22}">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4519566E-0386-4C17-A510-5F21C1FC657C}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,6 +1495,1174 @@
       <c r="K2">
         <v>5480</v>
       </c>
+      <c r="L2">
+        <v>5151.2</v>
+      </c>
+      <c r="M2">
+        <v>4842.1279999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6000</v>
+      </c>
+      <c r="C3">
+        <v>7000</v>
+      </c>
+      <c r="D3">
+        <v>9000</v>
+      </c>
+      <c r="E3">
+        <v>8460</v>
+      </c>
+      <c r="F3">
+        <v>7952.4</v>
+      </c>
+      <c r="G3">
+        <v>7475.2559999999994</v>
+      </c>
+      <c r="H3">
+        <v>7026.7406399999991</v>
+      </c>
+      <c r="I3">
+        <v>6605.1362015999985</v>
+      </c>
+      <c r="J3">
+        <v>6208.8280295039986</v>
+      </c>
+      <c r="K3">
+        <v>5836.2983477337584</v>
+      </c>
+      <c r="L3">
+        <v>5486.1204468697324</v>
+      </c>
+      <c r="M3">
+        <v>5156.9532200575486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5">
+        <v>5000</v>
+      </c>
+      <c r="D5">
+        <v>4700</v>
+      </c>
+      <c r="E5">
+        <v>4418</v>
+      </c>
+      <c r="F5">
+        <v>4152.92</v>
+      </c>
+      <c r="G5">
+        <v>3903.7447999999999</v>
+      </c>
+      <c r="H5">
+        <v>3669.5201119999997</v>
+      </c>
+      <c r="I5">
+        <v>3449.3489052799996</v>
+      </c>
+      <c r="J5">
+        <v>3242.3879709631992</v>
+      </c>
+      <c r="K5">
+        <v>3047.8446927054069</v>
+      </c>
+      <c r="L5">
+        <v>2864.9740111430824</v>
+      </c>
+      <c r="M5">
+        <v>2693.0755704744975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4500</v>
+      </c>
+      <c r="C6">
+        <v>4005</v>
+      </c>
+      <c r="D6">
+        <v>3764.7</v>
+      </c>
+      <c r="E6">
+        <v>3538.8179999999998</v>
+      </c>
+      <c r="F6">
+        <v>3326.4889199999998</v>
+      </c>
+      <c r="G6">
+        <v>3126.8995847999995</v>
+      </c>
+      <c r="H6">
+        <v>2939.2856097119993</v>
+      </c>
+      <c r="I6">
+        <v>2762.9284731292792</v>
+      </c>
+      <c r="J6">
+        <v>2597.1527647415223</v>
+      </c>
+      <c r="K6">
+        <v>2441.3235988570309</v>
+      </c>
+      <c r="L6">
+        <v>2294.8441829256089</v>
+      </c>
+      <c r="M6">
+        <v>2157.1535319500722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <v>1410</v>
+      </c>
+      <c r="D7">
+        <v>1325.3999999999999</v>
+      </c>
+      <c r="E7">
+        <v>1245.8759999999997</v>
+      </c>
+      <c r="F7">
+        <v>1171.1234399999996</v>
+      </c>
+      <c r="G7">
+        <v>1100.8560335999996</v>
+      </c>
+      <c r="H7">
+        <v>1034.8046715839996</v>
+      </c>
+      <c r="I7">
+        <v>972.71639128895958</v>
+      </c>
+      <c r="J7">
+        <v>914.35340781162199</v>
+      </c>
+      <c r="K7">
+        <v>859.49220334292465</v>
+      </c>
+      <c r="L7">
+        <v>807.92267114234915</v>
+      </c>
+      <c r="M7">
+        <v>759.44731087380819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1300</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1400</v>
+      </c>
+      <c r="C9">
+        <v>1316</v>
+      </c>
+      <c r="D9">
+        <v>1237.04</v>
+      </c>
+      <c r="E9">
+        <v>1162.8175999999999</v>
+      </c>
+      <c r="F9">
+        <v>1093.0485439999998</v>
+      </c>
+      <c r="G9">
+        <v>1027.4656313599996</v>
+      </c>
+      <c r="H9">
+        <v>965.81769347839963</v>
+      </c>
+      <c r="I9">
+        <v>907.86863186969561</v>
+      </c>
+      <c r="J9">
+        <v>853.39651395751378</v>
+      </c>
+      <c r="K9">
+        <v>802.19272312006285</v>
+      </c>
+      <c r="L9">
+        <v>721.97345080805655</v>
+      </c>
+      <c r="M9">
+        <v>649.77610572725087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>940</v>
+      </c>
+      <c r="D10">
+        <v>883.59999999999991</v>
+      </c>
+      <c r="E10">
+        <v>830.58399999999983</v>
+      </c>
+      <c r="F10">
+        <v>780.74895999999978</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>1272</v>
+      </c>
+      <c r="C11">
+        <v>1388.74</v>
+      </c>
+      <c r="D11">
+        <v>1414.5955999999999</v>
+      </c>
+      <c r="E11">
+        <v>1379.919864</v>
+      </c>
+      <c r="F11">
+        <v>1357.9246721599998</v>
+      </c>
+      <c r="G11">
+        <v>1255.9892750303998</v>
+      </c>
+      <c r="H11">
+        <v>1222.6299185285759</v>
+      </c>
+      <c r="I11">
+        <v>1191.2721234168612</v>
+      </c>
+      <c r="J11">
+        <v>1161.7957960118492</v>
+      </c>
+      <c r="K11">
+        <v>1134.0880482511386</v>
+      </c>
+      <c r="L11">
+        <v>1099.2896623394129</v>
+      </c>
+      <c r="M11">
+        <v>1067.6144898840566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2025</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2026</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2027</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2028</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2029</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2030</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2031</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>-5480*-1</f>
+        <v>5480</v>
+      </c>
+      <c r="D14">
+        <f>-14480*-1</f>
+        <v>14480</v>
+      </c>
+      <c r="E14">
+        <f>-13940*-1</f>
+        <v>13940</v>
+      </c>
+      <c r="F14">
+        <f>-13940*-1</f>
+        <v>13940</v>
+      </c>
+      <c r="G14">
+        <f>-13940*-1</f>
+        <v>13940</v>
+      </c>
+      <c r="H14">
+        <f>-13940*-1</f>
+        <v>13940</v>
+      </c>
+      <c r="I14">
+        <f>-13940*-1</f>
+        <v>13940</v>
+      </c>
+      <c r="J14">
+        <f>-20458*-1</f>
+        <v>20458</v>
+      </c>
+      <c r="K14">
+        <f>-19684*-1</f>
+        <v>19684</v>
+      </c>
+      <c r="L14">
+        <f>-19032*-1</f>
+        <v>19032</v>
+      </c>
+      <c r="M14">
+        <f>-21848*-1</f>
+        <v>21848</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>(C2 - ((C2/10) - (C14/10)))</f>
+        <v>5480</v>
+      </c>
+      <c r="D17">
+        <f>(D2 - ((D2/10) - (D14/10)))</f>
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <f>(C3 -((C3/10) - (C14/10)))</f>
+        <v>6848</v>
+      </c>
+      <c r="D18">
+        <f>(D3 - ((D3/10) - (D14/10)))</f>
+        <v>9548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f>(C4 - ((C4/10) - (C14/10)))</f>
+        <v>548</v>
+      </c>
+      <c r="D19">
+        <f>(D4 - ((D4/10) - (D14/10)))</f>
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f>(C5 -((C5/10) - (C14/10)))</f>
+        <v>5048</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D22" si="0">(D5 - ((D5/10) - (D17/10)))</f>
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f>(C6 - ((C6/10) - (C14/10)))</f>
+        <v>4152.5</v>
+      </c>
+      <c r="D21">
+        <f>(D6 - ((D6/10) - (D14/10)))</f>
+        <v>4836.2299999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <f>(C7 -((C7/10) - (C14/10)))</f>
+        <v>1817</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1337.6599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <f>(C8 - ((C8/10) - (C14/10)))</f>
+        <v>728</v>
+      </c>
+      <c r="D23">
+        <f>(D8 - ((D8/10) - (D14/10)))</f>
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <f>(C9 -((C9/10) - (C14/10)))</f>
+        <v>1732.4</v>
+      </c>
+      <c r="D24">
+        <f>(D9 - ((D9/10) - (D14/10)))</f>
+        <v>2561.3360000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <f>(C10 - ((C10/10) - (C14/10)))</f>
+        <v>1394</v>
+      </c>
+      <c r="D25">
+        <f>(D10 - ((D10/10) - (D14/10)))</f>
+        <v>2243.2399999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <f>(C11 -((C11/10) - (C14/10)))</f>
+        <v>1797.866</v>
+      </c>
+      <c r="D26">
+        <f>(D11 - ((D11/10) - (D14/10)))</f>
+        <v>2721.1360399999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B472579F-DC66-4E5F-A641-05A694AD2961}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3713</v>
+      </c>
+      <c r="C2">
+        <v>5616.9999999999991</v>
+      </c>
+      <c r="D2">
+        <v>5754</v>
+      </c>
+      <c r="E2">
+        <v>5754</v>
+      </c>
+      <c r="F2">
+        <v>5754</v>
+      </c>
+      <c r="G2">
+        <v>5754</v>
+      </c>
+      <c r="H2">
+        <v>5754</v>
+      </c>
+      <c r="I2">
+        <v>5754</v>
+      </c>
+      <c r="J2">
+        <v>5754</v>
+      </c>
+      <c r="K2">
+        <v>5754</v>
+      </c>
+      <c r="L2">
+        <v>5408.76</v>
+      </c>
+      <c r="M2">
+        <v>5084.2344000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6000</v>
+      </c>
+      <c r="C3">
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D3">
+        <v>9900</v>
+      </c>
+      <c r="E3">
+        <v>9306</v>
+      </c>
+      <c r="F3">
+        <v>8747.64</v>
+      </c>
+      <c r="G3">
+        <v>8222.7816000000003</v>
+      </c>
+      <c r="H3">
+        <v>7729.4147039999998</v>
+      </c>
+      <c r="I3">
+        <v>7265.6498217599992</v>
+      </c>
+      <c r="J3">
+        <v>6829.7108324543988</v>
+      </c>
+      <c r="K3">
+        <v>6419.9281825071348</v>
+      </c>
+      <c r="L3">
+        <v>6034.732491556706</v>
+      </c>
+      <c r="M3">
+        <v>5672.6485420633044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5">
+        <v>5375</v>
+      </c>
+      <c r="D5">
+        <v>5052.5</v>
+      </c>
+      <c r="E5">
+        <v>4749.3499999999995</v>
+      </c>
+      <c r="F5">
+        <v>4464.3890000000001</v>
+      </c>
+      <c r="G5">
+        <v>4196.5256599999993</v>
+      </c>
+      <c r="H5">
+        <v>3944.7341203999995</v>
+      </c>
+      <c r="I5">
+        <v>3708.0500731759994</v>
+      </c>
+      <c r="J5">
+        <v>3485.567068785439</v>
+      </c>
+      <c r="K5">
+        <v>3276.4330446583122</v>
+      </c>
+      <c r="L5">
+        <v>3079.8470619788136</v>
+      </c>
+      <c r="M5">
+        <v>2895.0562382600847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4500</v>
+      </c>
+      <c r="C6">
+        <v>4305.375</v>
+      </c>
+      <c r="D6">
+        <v>4047.0524999999998</v>
+      </c>
+      <c r="E6">
+        <v>3804.2293499999996</v>
+      </c>
+      <c r="F6">
+        <v>3575.9755889999997</v>
+      </c>
+      <c r="G6">
+        <v>3361.4170536599995</v>
+      </c>
+      <c r="H6">
+        <v>3159.7320304403993</v>
+      </c>
+      <c r="I6">
+        <v>2970.1481086139752</v>
+      </c>
+      <c r="J6">
+        <v>2791.9392220971363</v>
+      </c>
+      <c r="K6">
+        <v>2624.422868771308</v>
+      </c>
+      <c r="L6">
+        <v>2466.9574966450296</v>
+      </c>
+      <c r="M6">
+        <v>2318.9400468463277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <v>1515.75</v>
+      </c>
+      <c r="D7">
+        <v>1424.8049999999998</v>
+      </c>
+      <c r="E7">
+        <v>1339.3166999999996</v>
+      </c>
+      <c r="F7">
+        <v>1258.9576979999995</v>
+      </c>
+      <c r="G7">
+        <v>1183.4202361199996</v>
+      </c>
+      <c r="H7">
+        <v>1112.4150219527996</v>
+      </c>
+      <c r="I7">
+        <v>1045.6701206356315</v>
+      </c>
+      <c r="J7">
+        <v>982.92991339749358</v>
+      </c>
+      <c r="K7">
+        <v>923.95411859364401</v>
+      </c>
+      <c r="L7">
+        <v>868.51687147802534</v>
+      </c>
+      <c r="M7">
+        <v>816.4058591893438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1300</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1400</v>
+      </c>
+      <c r="C9">
+        <v>1348.8999999999999</v>
+      </c>
+      <c r="D9">
+        <v>1298.8920000000001</v>
+      </c>
+      <c r="E9">
+        <v>1220.95848</v>
+      </c>
+      <c r="F9">
+        <v>1147.7009711999999</v>
+      </c>
+      <c r="G9">
+        <v>1078.8389129279997</v>
+      </c>
+      <c r="H9">
+        <v>1014.1085781523196</v>
+      </c>
+      <c r="I9">
+        <v>953.26206346318043</v>
+      </c>
+      <c r="J9">
+        <v>896.06633965538947</v>
+      </c>
+      <c r="K9">
+        <v>842.302359276066</v>
+      </c>
+      <c r="L9">
+        <v>758.0721233484594</v>
+      </c>
+      <c r="M9">
+        <v>682.26491101361341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>940</v>
+      </c>
+      <c r="D10">
+        <v>883.59999999999991</v>
+      </c>
+      <c r="E10">
+        <v>830.58399999999983</v>
+      </c>
+      <c r="F10">
+        <v>780.74895999999978</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2494</v>
+      </c>
+      <c r="C11">
+        <v>2923.3595</v>
+      </c>
+      <c r="D11">
+        <v>3008.4954299999999</v>
+      </c>
+      <c r="E11">
+        <v>2933.4757042000006</v>
+      </c>
+      <c r="F11">
+        <v>2886.277161948</v>
+      </c>
+      <c r="G11">
+        <v>2664.7002131911199</v>
+      </c>
+      <c r="H11">
+        <v>2592.2682003996529</v>
+      </c>
+      <c r="I11">
+        <v>2524.1821083756731</v>
+      </c>
+      <c r="J11">
+        <v>2460.181181873133</v>
+      </c>
+      <c r="K11">
+        <v>2400.0203109607451</v>
+      </c>
+      <c r="L11">
+        <v>2324.4060932418706</v>
+      </c>
+      <c r="M11">
+        <v>2255.5790284922518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887FFB9D-DFDC-47F6-BD57-0C5C68F5CD22}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="61.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3713</v>
+      </c>
+      <c r="C2">
+        <v>5480</v>
+      </c>
+      <c r="D2">
+        <v>5480</v>
+      </c>
+      <c r="E2">
+        <v>5480</v>
+      </c>
+      <c r="F2">
+        <v>5480</v>
+      </c>
+      <c r="G2">
+        <v>5480</v>
+      </c>
+      <c r="H2">
+        <v>5480</v>
+      </c>
+      <c r="I2">
+        <v>5480</v>
+      </c>
+      <c r="J2">
+        <v>5480</v>
+      </c>
+      <c r="K2">
+        <v>5480</v>
+      </c>
       <c r="L2" s="4">
         <v>5151.2</v>
       </c>
@@ -1874,12 +3044,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73397D71-6DF9-4FCF-A9BC-71DBD8402678}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
